--- a/learnNote/Extjs常用API.xlsx
+++ b/learnNote/Extjs常用API.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="88">
   <si>
     <t>Ext.MessageBox</t>
   </si>
@@ -160,6 +160,126 @@
   </si>
   <si>
     <t>只显示一个"确定"按钮</t>
+  </si>
+  <si>
+    <t>Extjs -- Time</t>
+  </si>
+  <si>
+    <t>标识</t>
+  </si>
+  <si>
+    <t>示例</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>小时，12时计时法，不带前缀0</t>
+  </si>
+  <si>
+    <t>1至12</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>小时，24时计时法，不带前缀0</t>
+  </si>
+  <si>
+    <t>1至23</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>小时，12时计时法，带前缀0</t>
+  </si>
+  <si>
+    <t>01至12</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>小时，24时计时法，带前缀0</t>
+  </si>
+  <si>
+    <t>01至23</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>分钟，带前缀0</t>
+  </si>
+  <si>
+    <t>00至59</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>秒，带前缀0</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>午前和午后缩写，小写表示</t>
+  </si>
+  <si>
+    <t>am（午前）pm（午后）</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>午前和午后缩写，大写表示</t>
+  </si>
+  <si>
+    <t>AM（午前）PM（午后）</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>毫秒，带前缀0</t>
+  </si>
+  <si>
+    <t>001至999</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>所在时区和格林威治时间在小时和分钟上的差异</t>
+  </si>
+  <si>
+    <t>+1030</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>所在时区和格林威治时间在小时和分钟上的差异，在小时和分钟之间插入“：”</t>
+  </si>
+  <si>
+    <t>-8:30</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>所在时区缩写</t>
+  </si>
+  <si>
+    <t>EST等</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>所在时区和格林威治时间在小时和分钟上的差异，以s为单位</t>
   </si>
 </sst>
 </file>
@@ -169,10 +289,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +320,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -207,21 +334,98 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,78 +439,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,36 +462,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -365,19 +478,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,168 +652,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -559,13 +672,82 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="medium">
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,11 +767,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,8 +785,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,17 +815,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,46 +854,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -712,101 +905,101 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -816,16 +1009,34 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1178,8 +1389,8 @@
   <sheetPr/>
   <dimension ref="A1:C143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="2"/>
@@ -1193,48 +1404,54 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" ht="21" customHeight="1" spans="1:1">
-      <c r="A3" s="6" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" ht="21" customHeight="1" spans="1:3">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" ht="21" customHeight="1" spans="1:1">
-      <c r="A4" s="6" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" ht="21" customHeight="1" spans="1:3">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" ht="21" customHeight="1" spans="1:1">
-      <c r="A5" s="6" t="s">
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" ht="21" customHeight="1" spans="1:3">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" ht="21" customHeight="1" spans="1:1">
-      <c r="A6" s="6" t="s">
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" ht="21" customHeight="1" spans="1:3">
+      <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
     </row>
     <row r="7" ht="30" customHeight="1" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" ht="21" customHeight="1" spans="1:3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1242,145 +1459,145 @@
       </c>
     </row>
     <row r="9" ht="21" customHeight="1" spans="1:3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" ht="21" customHeight="1" spans="1:3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" ht="21" customHeight="1" spans="1:3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" ht="21" customHeight="1" spans="1:3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" ht="21" customHeight="1" spans="1:3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" ht="21" customHeight="1" spans="1:3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" ht="21" customHeight="1" spans="1:3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" ht="21" customHeight="1" spans="1:3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" ht="21" customHeight="1" spans="1:3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" ht="21" customHeight="1" spans="1:3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" ht="21" customHeight="1" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" ht="21" customHeight="1" spans="1:3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" ht="21" customHeight="1" spans="1:3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="11" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1388,51 +1605,197 @@
       <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" ht="21" customHeight="1" spans="1:3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" ht="21" customHeight="1" spans="1:2">
-      <c r="A24" s="1" t="s">
+    <row r="24" ht="21" customHeight="1" spans="1:3">
+      <c r="A24" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" ht="21" customHeight="1" spans="1:2">
-      <c r="A25" s="1" t="s">
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" ht="21" customHeight="1" spans="1:3">
+      <c r="A25" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="26" ht="21" customHeight="1"/>
-    <row r="27" ht="21" customHeight="1"/>
-    <row r="28" ht="21" customHeight="1"/>
-    <row r="29" ht="21" customHeight="1"/>
-    <row r="30" ht="21" customHeight="1"/>
-    <row r="31" ht="21" customHeight="1"/>
-    <row r="32" ht="21" customHeight="1"/>
-    <row r="33" ht="21" customHeight="1"/>
-    <row r="34" ht="21" customHeight="1"/>
-    <row r="35" ht="21" customHeight="1"/>
-    <row r="36" ht="21" customHeight="1"/>
-    <row r="37" ht="21" customHeight="1"/>
-    <row r="38" ht="21" customHeight="1"/>
-    <row r="39" ht="21" customHeight="1"/>
-    <row r="40" ht="21" customHeight="1"/>
+      <c r="C25" s="11"/>
+    </row>
+    <row r="26" ht="31" customHeight="1" spans="1:3">
+      <c r="A26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" ht="21" customHeight="1" spans="1:3">
+      <c r="A27" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" ht="21" customHeight="1" spans="1:3">
+      <c r="A28" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" ht="21" customHeight="1" spans="1:3">
+      <c r="A29" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" ht="21" customHeight="1" spans="1:3">
+      <c r="A30" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" ht="21" customHeight="1" spans="1:3">
+      <c r="A31" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" ht="21" customHeight="1" spans="1:3">
+      <c r="A32" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" ht="21" customHeight="1" spans="1:3">
+      <c r="A33" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" ht="21" customHeight="1" spans="1:3">
+      <c r="A34" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" ht="21" customHeight="1" spans="1:3">
+      <c r="A35" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" ht="21" customHeight="1" spans="1:3">
+      <c r="A36" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" ht="21" customHeight="1" spans="1:3">
+      <c r="A37" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" ht="21" customHeight="1" spans="1:3">
+      <c r="A38" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" ht="21" customHeight="1" spans="1:3">
+      <c r="A39" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" ht="21" customHeight="1" spans="1:3">
+      <c r="A40" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="11"/>
+    </row>
     <row r="41" ht="21" customHeight="1"/>
     <row r="42" ht="21" customHeight="1"/>
     <row r="43" ht="21" customHeight="1"/>
@@ -1537,11 +1900,12 @@
     <row r="142" ht="21" customHeight="1"/>
     <row r="143" ht="21" customHeight="1"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
